--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_21-05.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_21-05.xlsx
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>LAGAR 15 ML DROPS</t>
+  </si>
+  <si>
+    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
   </si>
   <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
@@ -2662,17 +2665,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2688,17 +2691,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2714,17 +2717,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2740,17 +2743,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2766,13 +2769,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
@@ -2792,13 +2795,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
@@ -2818,17 +2821,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2844,17 +2847,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>24.960000000000001</v>
+        <v>46</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2870,17 +2873,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>36</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2896,17 +2899,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>33.840000000000003</v>
+        <v>36</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2922,17 +2925,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>31</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2948,17 +2951,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2966,7 +2969,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2974,17 +2977,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>0.25</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3000,17 +3003,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3018,7 +3021,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -3026,17 +3029,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3058,11 +3061,11 @@
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3078,17 +3081,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3110,7 +3113,7 @@
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
@@ -3130,17 +3133,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3148,7 +3151,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3156,17 +3159,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3188,7 +3191,7 @@
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
@@ -3214,7 +3217,7 @@
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
@@ -3234,13 +3237,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
@@ -3260,13 +3263,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
@@ -3286,13 +3289,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
@@ -3312,13 +3315,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
@@ -3338,13 +3341,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
@@ -3364,17 +3367,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3382,7 +3385,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3390,17 +3393,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>134.40000000000001</v>
+        <v>26</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>4</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3416,17 +3419,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>60</v>
+        <v>134.40000000000001</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3442,13 +3445,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
@@ -3468,13 +3471,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
@@ -3494,13 +3497,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
@@ -3512,7 +3515,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3520,13 +3523,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
@@ -3552,11 +3555,11 @@
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3572,17 +3575,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3598,17 +3601,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>74.689999999999998</v>
+        <v>168</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>0.20000000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3624,17 +3627,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>128</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3650,17 +3653,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3676,17 +3679,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3702,17 +3705,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>24.960000000000001</v>
+        <v>18</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3728,17 +3731,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>17</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3754,17 +3757,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3772,7 +3775,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3780,17 +3783,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3806,13 +3809,13 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>102.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
@@ -3832,17 +3835,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>168</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3858,17 +3861,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3876,7 +3879,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3884,13 +3887,13 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
@@ -3910,13 +3913,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
@@ -3936,17 +3939,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>98.400000000000006</v>
+        <v>30</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3954,7 +3957,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3962,17 +3965,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>20</v>
+        <v>98.400000000000006</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -3980,7 +3983,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3988,13 +3991,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
@@ -4014,17 +4017,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4032,7 +4035,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4040,17 +4043,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4066,17 +4069,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4084,7 +4087,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4092,17 +4095,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4118,13 +4121,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
@@ -4144,13 +4147,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
@@ -4170,13 +4173,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
@@ -4196,17 +4199,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4222,17 +4225,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4240,7 +4243,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4248,17 +4251,17 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1">
@@ -4274,17 +4277,17 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4300,13 +4303,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="10">
@@ -4318,7 +4321,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B128" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4326,13 +4329,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10">
@@ -4352,51 +4355,77 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="130" ht="26.25" customHeight="1">
-      <c r="K130" s="11">
-        <v>7265.9399999999996</v>
-      </c>
-      <c r="L130" s="11"/>
-      <c r="M130" s="11"/>
-      <c r="N130" s="11"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="12">
+    <row r="130" ht="25.5" customHeight="1">
+      <c r="A130" s="6">
+        <v>127</v>
+      </c>
+      <c t="s" r="B130" s="7">
         <v>166</v>
       </c>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c t="s" r="F131" s="13">
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c t="s" r="H130" s="8">
+        <v>53</v>
+      </c>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="8"/>
+      <c r="L130" s="9">
+        <v>30</v>
+      </c>
+      <c r="M130" s="9"/>
+      <c r="N130" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="K131" s="11">
+        <v>7297.9399999999996</v>
+      </c>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="12">
         <v>167</v>
       </c>
-      <c r="G131" s="13"/>
-      <c r="H131" s="14"/>
-      <c t="s" r="I131" s="15">
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c t="s" r="F132" s="13">
         <v>168</v>
       </c>
-      <c r="J131" s="15"/>
-      <c r="K131" s="15"/>
-      <c r="L131" s="15"/>
-      <c r="M131" s="15"/>
-      <c r="N131" s="15"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="14"/>
+      <c t="s" r="I132" s="15">
+        <v>169</v>
+      </c>
+      <c r="J132" s="15"/>
+      <c r="K132" s="15"/>
+      <c r="L132" s="15"/>
+      <c r="M132" s="15"/>
+      <c r="N132" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="389">
+  <mergeCells count="392">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4782,10 +4811,13 @@
     <mergeCell ref="B129:G129"/>
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
-    <mergeCell ref="K130:N130"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="I131:N131"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="K131:N131"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="I132:N132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
